--- a/ПредсказаниеНаМесяц.xlsx
+++ b/ПредсказаниеНаМесяц.xlsx
@@ -100,7 +100,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>7206.0</v>
+        <v>7278.0</v>
       </c>
     </row>
     <row r="2">
@@ -108,7 +108,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>20056.0</v>
+        <v>16891.0</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +116,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>2328.0</v>
+        <v>2299.0</v>
       </c>
     </row>
     <row r="4">
@@ -124,7 +124,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>2357.0</v>
+        <v>2349.0</v>
       </c>
     </row>
     <row r="5">
@@ -132,7 +132,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>78338.0</v>
+        <v>71006.0</v>
       </c>
     </row>
     <row r="6">
@@ -140,7 +140,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>8365.0</v>
+        <v>8386.0</v>
       </c>
     </row>
     <row r="7">
@@ -148,7 +148,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>3364.0</v>
+        <v>3377.0</v>
       </c>
     </row>
     <row r="8">
@@ -156,7 +156,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="9">
@@ -164,7 +164,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>339185.0</v>
+        <v>374203.0</v>
       </c>
     </row>
     <row r="10">
@@ -172,7 +172,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>23845.0</v>
+        <v>60068.0</v>
       </c>
     </row>
   </sheetData>
